--- a/admin/CSV/modelo/modelo.xlsx
+++ b/admin/CSV/modelo/modelo.xlsx
@@ -85,19 +85,19 @@
     <t xml:space="preserve">SEXO</t>
   </si>
   <si>
-    <t xml:space="preserve">Nome Sobrenome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curso Teste</t>
+    <t xml:space="preserve">Exemplo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curso </t>
   </si>
   <si>
     <t xml:space="preserve">a1</t>
   </si>
   <si>
-    <t xml:space="preserve">DISC01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disciplina um</t>
+    <t xml:space="preserve">PHP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURSO PHP</t>
   </si>
   <si>
     <t xml:space="preserve">Aprovado</t>
@@ -106,7 +106,7 @@
     <t xml:space="preserve">1o. Semestre</t>
   </si>
   <si>
-    <t xml:space="preserve">Sem Evasão</t>
+    <t xml:space="preserve">Sem EvasĂ£o</t>
   </si>
   <si>
     <t xml:space="preserve">M</t>
@@ -184,10 +184,14 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -208,32 +212,32 @@
   </sheetPr>
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.26530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="24.4336734693878"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="5.26530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="1" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="6.61224489795918"/>
     <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
@@ -303,71 +307,72 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>1123</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>1468</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>2578568</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>2578568</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="0" t="n">
+      <c r="R2" s="1" t="n">
+        <v>2017</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="R2" s="0" t="n">
-        <v>2017</v>
-      </c>
-      <c r="S2" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="T2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="0" t="s">
+      <c r="U2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="true" objects="true" scenarios="true"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
